--- a/inst/extdata/CopyOfData/lumberpre1900.xlsx
+++ b/inst/extdata/CopyOfData/lumberpre1900.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Desktop/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="26680" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,15 +18,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>lumber wood  in single and multifamily houses build 1800 to 1900</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +62,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,770 +344,1233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:2" ht="85">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1900</v>
+      </c>
+      <c r="B2">
         <v>338790813.35465813</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1901</v>
+      </c>
+      <c r="B3">
         <v>334583470.08723426</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1902</v>
+      </c>
+      <c r="B4">
         <v>330441481.61735243</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1903</v>
+      </c>
+      <c r="B5">
         <v>326363548.79563165</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1904</v>
+      </c>
+      <c r="B6">
         <v>322348403.6681751</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1905</v>
+      </c>
+      <c r="B7">
         <v>318394808.64180613</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1906</v>
+      </c>
+      <c r="B8">
         <v>314501555.67285401</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1907</v>
+      </c>
+      <c r="B9">
         <v>310667465.47881037</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1908</v>
+      </c>
+      <c r="B10">
         <v>306891386.77219385</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1909</v>
+      </c>
+      <c r="B11">
         <v>303172195.51598239</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1910</v>
+      </c>
+      <c r="B12">
         <v>299508794.19999009</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1911</v>
+      </c>
+      <c r="B13">
         <v>295900111.13758332</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1912</v>
+      </c>
+      <c r="B14">
         <v>292345099.78215075</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1913</v>
+      </c>
+      <c r="B15">
         <v>288842738.06275558</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1914</v>
+      </c>
+      <c r="B16">
         <v>285392027.73841834</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1915</v>
+      </c>
+      <c r="B17">
         <v>281991993.7704919</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1916</v>
+      </c>
+      <c r="B18">
         <v>278641683.71260875</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1917</v>
+      </c>
+      <c r="B19">
         <v>275340167.11769307</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1918</v>
+      </c>
+      <c r="B20">
         <v>272086534.96154749</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1919</v>
+      </c>
+      <c r="B21">
         <v>268879899.08253598</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1920</v>
+      </c>
+      <c r="B22">
         <v>265719391.63690141</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1921</v>
+      </c>
+      <c r="B23">
         <v>262604164.56926715</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1922</v>
+      </c>
+      <c r="B24">
         <v>259533389.0978868</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1923</v>
+      </c>
+      <c r="B25">
         <v>256506255.21421674</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1924</v>
+      </c>
+      <c r="B26">
         <v>253521971.19640309</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1925</v>
+      </c>
+      <c r="B27">
         <v>250579763.1362806</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1926</v>
+      </c>
+      <c r="B28">
         <v>247678874.47949731</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1927</v>
+      </c>
+      <c r="B29">
         <v>244818565.5783883</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1928</v>
+      </c>
+      <c r="B30">
         <v>241998113.25723255</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1929</v>
+      </c>
+      <c r="B31">
         <v>239216810.3895385</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1930</v>
+      </c>
+      <c r="B32">
         <v>236473965.48701364</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1931</v>
+      </c>
+      <c r="B33">
         <v>233768902.29988316</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1932</v>
+      </c>
+      <c r="B34">
         <v>231100959.42823398</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1933</v>
+      </c>
+      <c r="B35">
         <v>228469489.94406727</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1934</v>
+      </c>
+      <c r="B36">
         <v>225873861.02375454</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1935</v>
+      </c>
+      <c r="B37">
         <v>223313453.59059992</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1936</v>
+      </c>
+      <c r="B38">
         <v>220787661.96721882</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1937</v>
+      </c>
+      <c r="B39">
         <v>218295893.53745502</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1938</v>
+      </c>
+      <c r="B40">
         <v>215837568.41756088</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1939</v>
+      </c>
+      <c r="B41">
         <v>213412119.13638026</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1940</v>
+      </c>
+      <c r="B42">
         <v>211018990.32427415</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1941</v>
+      </c>
+      <c r="B43">
         <v>208657638.41054243</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1942</v>
+      </c>
+      <c r="B44">
         <v>206327531.32909858</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1943</v>
+      </c>
+      <c r="B45">
         <v>204028148.23216307</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1944</v>
+      </c>
+      <c r="B46">
         <v>201758979.21174735</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1945</v>
+      </c>
+      <c r="B47">
         <v>199519525.02870661</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1946</v>
+      </c>
+      <c r="B48">
         <v>197309296.84914756</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1947</v>
+      </c>
+      <c r="B49">
         <v>195127815.98798066</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1948</v>
+      </c>
+      <c r="B50">
         <v>192974613.65941599</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1949</v>
+      </c>
+      <c r="B51">
         <v>190849230.73420471</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1950</v>
+      </c>
+      <c r="B52">
         <v>188751217.50343499</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1951</v>
+      </c>
+      <c r="B53">
         <v>184187094.84958592</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1952</v>
+      </c>
+      <c r="B54">
         <v>179733335.54001033</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1953</v>
+      </c>
+      <c r="B55">
         <v>175387270.91992337</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1954</v>
+      </c>
+      <c r="B56">
         <v>171146296.86428413</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1955</v>
+      </c>
+      <c r="B57">
         <v>167007872.21742618</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1956</v>
+      </c>
+      <c r="B58">
         <v>162969517.27041867</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1957</v>
+      </c>
+      <c r="B59">
         <v>159028812.2752457</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1958</v>
+      </c>
+      <c r="B60">
         <v>155183395.99491388</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1959</v>
+      </c>
+      <c r="B61">
         <v>151430964.28861919</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1960</v>
+      </c>
+      <c r="B62">
         <v>147769268.73112524</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1961</v>
+      </c>
+      <c r="B63">
         <v>144196115.26552618</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1962</v>
+      </c>
+      <c r="B64">
         <v>140709362.88858616</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1963</v>
+      </c>
+      <c r="B65">
         <v>137306922.36786857</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1964</v>
+      </c>
+      <c r="B66">
         <v>133986754.98988552</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1965</v>
+      </c>
+      <c r="B67">
         <v>130746871.33851819</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1966</v>
+      </c>
+      <c r="B68">
         <v>127585330.10297535</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1967</v>
+      </c>
+      <c r="B69">
         <v>124500236.91457669</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1968</v>
+      </c>
+      <c r="B70">
         <v>121489743.21166293</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1969</v>
+      </c>
+      <c r="B71">
         <v>118552045.13195351</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1970</v>
+      </c>
+      <c r="B72">
         <v>115685382.43168752</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1971</v>
+      </c>
+      <c r="B73">
         <v>112888037.43090069</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1972</v>
+      </c>
+      <c r="B74">
         <v>110158333.98420607</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1973</v>
+      </c>
+      <c r="B75">
         <v>107494636.47646184</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1974</v>
+      </c>
+      <c r="B76">
         <v>104895348.84272477</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1975</v>
+      </c>
+      <c r="B77">
         <v>102358913.6119016</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1976</v>
+      </c>
+      <c r="B78">
         <v>99883810.97352545</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1977</v>
+      </c>
+      <c r="B79">
         <v>97468557.867098466</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1978</v>
+      </c>
+      <c r="B80">
         <v>95111707.093454435</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>1979</v>
+      </c>
+      <c r="B81">
         <v>92811846.44760935</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>1980</v>
+      </c>
+      <c r="B82">
         <v>90567597.87258023</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>1981</v>
+      </c>
+      <c r="B83">
         <v>88377616.633664966</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>1982</v>
+      </c>
+      <c r="B84">
         <v>86240590.512688771</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>1983</v>
+      </c>
+      <c r="B85">
         <v>84155239.021734163</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>1984</v>
+      </c>
+      <c r="B86">
         <v>82120312.635883495</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>1985</v>
+      </c>
+      <c r="B87">
         <v>80134592.044514149</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>1986</v>
+      </c>
+      <c r="B88">
         <v>78196887.420698062</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>1987</v>
+      </c>
+      <c r="B89">
         <v>76306037.708267465</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>1988</v>
+      </c>
+      <c r="B90">
         <v>74460909.926119909</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>1989</v>
+      </c>
+      <c r="B91">
         <v>72660398.489345536</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>1990</v>
+      </c>
+      <c r="B92">
         <v>70903424.546770111</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>1991</v>
+      </c>
+      <c r="B93">
         <v>69188935.334516391</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>1992</v>
+      </c>
+      <c r="B94">
         <v>67515903.545197114</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>1993</v>
+      </c>
+      <c r="B95">
         <v>65883326.712360963</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>1994</v>
+      </c>
+      <c r="B96">
         <v>64290226.609823331</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>1995</v>
+      </c>
+      <c r="B97">
         <v>62735648.665521346</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>1996</v>
+      </c>
+      <c r="B98">
         <v>61218661.389542527</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>1997</v>
+      </c>
+      <c r="B99">
         <v>59738355.815983817</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>1998</v>
+      </c>
+      <c r="B100">
         <v>58293844.958306991</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>1999</v>
+      </c>
+      <c r="B101">
         <v>56884263.277863897</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102">
         <v>55508766.165272869</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>2001</v>
+      </c>
+      <c r="B103">
         <v>54166529.434336171</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>2002</v>
+      </c>
+      <c r="B104">
         <v>52856748.828194447</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>2003</v>
+      </c>
+      <c r="B105">
         <v>51578639.537422955</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>2004</v>
+      </c>
+      <c r="B106">
         <v>50331435.729780309</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>2005</v>
+      </c>
+      <c r="B107">
         <v>49114390.091328427</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>2006</v>
+      </c>
+      <c r="B108">
         <v>47926773.378648229</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>2007</v>
+      </c>
+      <c r="B109">
         <v>46767873.981883287</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>2008</v>
+      </c>
+      <c r="B110">
         <v>45636997.498349138</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>2009</v>
+      </c>
+      <c r="B111">
         <v>44533466.316453181</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>2010</v>
+      </c>
+      <c r="B112">
         <v>43456619.209675439</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>2011</v>
+      </c>
+      <c r="B113">
         <v>42405810.940367386</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>2012</v>
+      </c>
+      <c r="B114">
         <v>41380411.87313091</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>2013</v>
+      </c>
+      <c r="B115">
         <v>40379807.597546175</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>2014</v>
+      </c>
+      <c r="B116">
         <v>39403398.560022086</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>2015</v>
+      </c>
+      <c r="B117">
         <v>38450599.704548903</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>2016</v>
+      </c>
+      <c r="B118">
         <v>37520840.122137628</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>2017</v>
+      </c>
+      <c r="B119">
         <v>36613562.708736137</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>2018</v>
+      </c>
+      <c r="B120">
         <v>35728223.83141724</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>2019</v>
+      </c>
+      <c r="B121">
         <v>34864293.002638377</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122">
         <v>34021252.562378027</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>2021</v>
+      </c>
+      <c r="B123">
         <v>33198597.367958177</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>2022</v>
+      </c>
+      <c r="B124">
         <v>32395834.491367172</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>2023</v>
+      </c>
+      <c r="B125">
         <v>31612482.923901368</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>2024</v>
+      </c>
+      <c r="B126">
         <v>30848073.287948854</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>2025</v>
+      </c>
+      <c r="B127">
         <v>30102147.55574232</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>2026</v>
+      </c>
+      <c r="B128">
         <v>29374258.77491276</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>2027</v>
+      </c>
+      <c r="B129">
         <v>28663970.800679345</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>2028</v>
+      </c>
+      <c r="B130">
         <v>27970858.034515236</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>2029</v>
+      </c>
+      <c r="B131">
         <v>27294505.169132505</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>2030</v>
+      </c>
+      <c r="B132">
         <v>26634506.939633559</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>2031</v>
+      </c>
+      <c r="B133">
         <v>25990467.880679831</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>2032</v>
+      </c>
+      <c r="B134">
         <v>25362002.089532342</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>2033</v>
+      </c>
+      <c r="B135">
         <v>24748732.994822022</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>2034</v>
+      </c>
+      <c r="B136">
         <v>24150293.13091135</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>2035</v>
+      </c>
+      <c r="B137">
         <v>23566323.917712059</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>2036</v>
+      </c>
+      <c r="B138">
         <v>22996475.445827011</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>2037</v>
+      </c>
+      <c r="B139">
         <v>22440406.266887423</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>2038</v>
+      </c>
+      <c r="B140">
         <v>21897783.188959919</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>2039</v>
+      </c>
+      <c r="B141">
         <v>21368281.07690075</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>2040</v>
+      </c>
+      <c r="B142">
         <v>20851582.657537591</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>2041</v>
+      </c>
+      <c r="B143">
         <v>20347378.329562109</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>2042</v>
+      </c>
+      <c r="B144">
         <v>19855365.978019517</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>2043</v>
+      </c>
+      <c r="B145">
         <v>19375250.793283846</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>2044</v>
+      </c>
+      <c r="B146">
         <v>18906745.094410542</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>2045</v>
+      </c>
+      <c r="B147">
         <v>18449568.156760443</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>2046</v>
+      </c>
+      <c r="B148">
         <v>18003446.043791968</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>2047</v>
+      </c>
+      <c r="B149">
         <v>17568111.442920722</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>2048</v>
+      </c>
+      <c r="B150">
         <v>17143303.505347971</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>2049</v>
+      </c>
+      <c r="B151">
         <v>16728767.689762335</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>2050</v>
+      </c>
+      <c r="B152">
         <v>16324255.609820735</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>